--- a/src/test/resources/testdata/Suite.xlsx
+++ b/src/test/resources/testdata/Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>SuiteName</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -398,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
